--- a/data/trans_dic/P36BPD04_R_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_R_2023-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.8019882400048455</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.8245351653759736</v>
+        <v>0.8245351653759738</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.8135917367018365</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7684477404980726</v>
+        <v>0.767843544153375</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7993396865242062</v>
+        <v>0.7990955624701873</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7914836922011624</v>
+        <v>0.7916996670899888</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8355447201281063</v>
+        <v>0.8328154423007416</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8481386868023403</v>
+        <v>0.8483468829705929</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8318375542699602</v>
+        <v>0.8336352156262027</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.801715689999121</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.8394137642791135</v>
+        <v>0.8394137642791136</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8207548622456322</v>
+        <v>0.820754862245632</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7717074333549616</v>
+        <v>0.7722120884127704</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8178961915642475</v>
+        <v>0.8162666156245173</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8032687795590568</v>
+        <v>0.8027151637896525</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8275021661554214</v>
+        <v>0.8284259559394135</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8596659705975993</v>
+        <v>0.8589482911188694</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8361984744683562</v>
+        <v>0.83717377537122</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.7231041022990844</v>
+        <v>0.7231041022990843</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7433259105532152</v>
+        <v>0.7433259105532153</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7332725027630974</v>
+        <v>0.7332725027630972</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6838736548503986</v>
+        <v>0.6810360335614002</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7140984650836697</v>
+        <v>0.7147180963462311</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7064021357214163</v>
+        <v>0.7063562215286502</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7568761646732288</v>
+        <v>0.756510403223262</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7738009140902705</v>
+        <v>0.7717799620675195</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.75678820471193</v>
+        <v>0.753905048967131</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.7158773776087812</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7618586409994779</v>
+        <v>0.7618586409994778</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7402752304466967</v>
+        <v>0.7402752304466969</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6850193777196907</v>
+        <v>0.6804283903241797</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7356245058020103</v>
+        <v>0.7373767427726484</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7194625110399743</v>
+        <v>0.7180586038748786</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7454658264035815</v>
+        <v>0.7458608775902449</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7834904710589936</v>
+        <v>0.7845764044625594</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7591026636097704</v>
+        <v>0.7584990085822909</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.759843548727047</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7923500154718549</v>
+        <v>0.7923500154718548</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.776546887677106</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7441234551250635</v>
+        <v>0.7438892186784272</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7792628773010393</v>
+        <v>0.7790793578075638</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7661331051691534</v>
+        <v>0.7659307950908738</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7758259766649906</v>
+        <v>0.776387560975671</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8043776058370031</v>
+        <v>0.8040748818248217</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7867302575493307</v>
+        <v>0.7868303033387067</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>529943</v>
+        <v>529526</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>584496</v>
+        <v>584318</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1124580</v>
+        <v>1124887</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>576215</v>
+        <v>574333</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>620179</v>
+        <v>620332</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1181917</v>
+        <v>1184471</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>809457</v>
+        <v>809986</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>875389</v>
+        <v>873645</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1702296</v>
+        <v>1701123</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>867981</v>
+        <v>868950</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>920095</v>
+        <v>919327</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1772081</v>
+        <v>1774148</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>549200</v>
+        <v>546922</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>580033</v>
+        <v>580536</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1141074</v>
+        <v>1141000</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>607827</v>
+        <v>607533</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>628527</v>
+        <v>626885</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1222464</v>
+        <v>1217807</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>677446</v>
+        <v>672906</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>822355</v>
+        <v>824314</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1515797</v>
+        <v>1512839</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>737224</v>
+        <v>737615</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>875865</v>
+        <v>877079</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1599312</v>
+        <v>1598041</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2627174</v>
+        <v>2626347</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2907958</v>
+        <v>2907273</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5563842</v>
+        <v>5562373</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2739102</v>
+        <v>2741084</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3001678</v>
+        <v>3000549</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5713424</v>
+        <v>5714151</v>
       </c>
     </row>
     <row r="24">
